--- a/Code/Results/Cases/Case_9_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.46219262486602</v>
+        <v>2.277462003738492</v>
       </c>
       <c r="C2">
-        <v>0.5996913264366128</v>
+        <v>0.6765805435314576</v>
       </c>
       <c r="D2">
-        <v>0.05974655830024744</v>
+        <v>0.0707508417271896</v>
       </c>
       <c r="E2">
-        <v>0.07463509119397926</v>
+        <v>0.07838251030861443</v>
       </c>
       <c r="F2">
-        <v>1.38413596694933</v>
+        <v>1.248210930758233</v>
       </c>
       <c r="G2">
-        <v>1.108613539357506</v>
+        <v>0.9443408404269462</v>
       </c>
       <c r="H2">
-        <v>0.0005879996760287387</v>
+        <v>0.0005067820002224721</v>
       </c>
       <c r="I2">
-        <v>0.0005274525287140008</v>
+        <v>0.0005418017094909189</v>
       </c>
       <c r="J2">
-        <v>0.7089869024158588</v>
+        <v>0.6719869090391484</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1057072310292249</v>
+        <v>0.2402877602235804</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1459232259795478</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1047701140283976</v>
       </c>
       <c r="O2">
-        <v>0.6691239924265417</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8520870561219258</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6662985379066839</v>
+      </c>
+      <c r="R2">
+        <v>0.8234553714765998</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.143381942530937</v>
+        <v>1.990580845931561</v>
       </c>
       <c r="C3">
-        <v>0.5216787814024144</v>
+        <v>0.5843858953740266</v>
       </c>
       <c r="D3">
-        <v>0.05420384343115359</v>
+        <v>0.06399403491381861</v>
       </c>
       <c r="E3">
-        <v>0.06798247801683921</v>
+        <v>0.07170162788444046</v>
       </c>
       <c r="F3">
-        <v>1.282113640622256</v>
+        <v>1.164360544617324</v>
       </c>
       <c r="G3">
-        <v>1.017501660676459</v>
+        <v>0.8744008299081969</v>
       </c>
       <c r="H3">
-        <v>0.001730826606653579</v>
+        <v>0.001488706996770173</v>
       </c>
       <c r="I3">
-        <v>0.001122427768232015</v>
+        <v>0.0008001888253392764</v>
       </c>
       <c r="J3">
-        <v>0.670677591978091</v>
+        <v>0.6383454917126414</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.09641597277016345</v>
+        <v>0.2408092937521999</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1348237496096338</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09628536195363324</v>
       </c>
       <c r="O3">
-        <v>0.584661864202161</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8852901803879361</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5825843010036422</v>
+      </c>
+      <c r="R3">
+        <v>0.8521101880229782</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.947279477545237</v>
+        <v>1.813543935284883</v>
       </c>
       <c r="C4">
-        <v>0.4741999969646997</v>
+        <v>0.5283647787585437</v>
       </c>
       <c r="D4">
-        <v>0.05083658291898985</v>
+        <v>0.05990068565915863</v>
       </c>
       <c r="E4">
-        <v>0.0639046055715955</v>
+        <v>0.06760542215946685</v>
       </c>
       <c r="F4">
-        <v>1.220150731707704</v>
+        <v>1.113244169724339</v>
       </c>
       <c r="G4">
-        <v>0.9621640533889462</v>
+        <v>0.8319508042951895</v>
       </c>
       <c r="H4">
-        <v>0.002769179647087561</v>
+        <v>0.002381415433121092</v>
       </c>
       <c r="I4">
-        <v>0.001839381043528654</v>
+        <v>0.001227168329670736</v>
       </c>
       <c r="J4">
-        <v>0.6475463685395368</v>
+        <v>0.6176589910080992</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.09069542650242113</v>
+        <v>0.2409811582370196</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1287354616300682</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09104725312553796</v>
       </c>
       <c r="O4">
-        <v>0.5328778335711561</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9062111954549297</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.531211030615161</v>
+      </c>
+      <c r="R4">
+        <v>0.8703275604113099</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.865589741758896</v>
+        <v>1.739629193089399</v>
       </c>
       <c r="C5">
-        <v>0.4556552097700433</v>
+        <v>0.5063961388931091</v>
       </c>
       <c r="D5">
-        <v>0.04954991756657989</v>
+        <v>0.05832697681233157</v>
       </c>
       <c r="E5">
-        <v>0.06226159742210946</v>
+        <v>0.06595509642957076</v>
       </c>
       <c r="F5">
-        <v>1.193907238384512</v>
+        <v>1.091455966917295</v>
       </c>
       <c r="G5">
-        <v>0.9385341738824167</v>
+        <v>0.8136863526354716</v>
       </c>
       <c r="H5">
-        <v>0.003275329422071538</v>
+        <v>0.002816732447713632</v>
       </c>
       <c r="I5">
-        <v>0.002289193904000619</v>
+        <v>0.001550354270874799</v>
       </c>
       <c r="J5">
-        <v>0.6375947871734553</v>
+        <v>0.6086510789184985</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08833507335413771</v>
+        <v>0.2407005942703258</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1262266634153413</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08888247435491436</v>
       </c>
       <c r="O5">
-        <v>0.5117535419485435</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9147041442776813</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5102450987324971</v>
+      </c>
+      <c r="R5">
+        <v>0.8778731903247312</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.849974652293554</v>
+        <v>1.725460936069709</v>
       </c>
       <c r="C6">
-        <v>0.4534501476628066</v>
+        <v>0.5036446052332337</v>
       </c>
       <c r="D6">
-        <v>0.04943169286146798</v>
+        <v>0.05816621087776497</v>
       </c>
       <c r="E6">
-        <v>0.06201129939802108</v>
+        <v>0.06570376840857683</v>
       </c>
       <c r="F6">
-        <v>1.188156340629675</v>
+        <v>1.086574124121711</v>
       </c>
       <c r="G6">
-        <v>0.9331335969925334</v>
+        <v>0.8093468816429521</v>
       </c>
       <c r="H6">
-        <v>0.003367475068532078</v>
+        <v>0.002895906311591423</v>
       </c>
       <c r="I6">
-        <v>0.002466834273418428</v>
+        <v>0.001720988800339107</v>
       </c>
       <c r="J6">
-        <v>0.6351946865643328</v>
+        <v>0.6064612717358102</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08791428415126745</v>
+        <v>0.2402702648060036</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1255668285725058</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.0884961128467161</v>
       </c>
       <c r="O6">
-        <v>0.5082042750363271</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9159269589746604</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5067237487215408</v>
+      </c>
+      <c r="R6">
+        <v>0.8791019230484896</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.940574358168533</v>
+        <v>1.805307296219354</v>
       </c>
       <c r="C7">
-        <v>0.476328054144858</v>
+        <v>0.5294231527501267</v>
       </c>
       <c r="D7">
-        <v>0.05107874940325985</v>
+        <v>0.06034536766973986</v>
       </c>
       <c r="E7">
-        <v>0.06394416529615832</v>
+        <v>0.06770435684611797</v>
       </c>
       <c r="F7">
-        <v>1.215962797190514</v>
+        <v>1.107279239749246</v>
       </c>
       <c r="G7">
-        <v>0.9577838253258619</v>
+        <v>0.8319544604329252</v>
       </c>
       <c r="H7">
-        <v>0.002783846389419309</v>
+        <v>0.002398849075013865</v>
       </c>
       <c r="I7">
-        <v>0.002095251607425297</v>
+        <v>0.00152437660039606</v>
       </c>
       <c r="J7">
-        <v>0.6453539956733891</v>
+        <v>0.6079646345738468</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.09058588208823082</v>
+        <v>0.2395144515603711</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1276822530899544</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09092502365624711</v>
       </c>
       <c r="O7">
-        <v>0.5324767605830374</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9058091200378282</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5303960690411103</v>
+      </c>
+      <c r="R7">
+        <v>0.8703538773373936</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.34482109847022</v>
+        <v>2.164844525047556</v>
       </c>
       <c r="C8">
-        <v>0.5758731523057179</v>
+        <v>0.6442846711838683</v>
       </c>
       <c r="D8">
-        <v>0.05817261038115618</v>
+        <v>0.06942591245888252</v>
       </c>
       <c r="E8">
-        <v>0.07242150474952957</v>
+        <v>0.07636073480763628</v>
       </c>
       <c r="F8">
-        <v>1.343717918577397</v>
+        <v>1.207314080011628</v>
       </c>
       <c r="G8">
-        <v>1.071664374791396</v>
+        <v>0.9282284750117782</v>
       </c>
       <c r="H8">
-        <v>0.0009154481281967719</v>
+        <v>0.0007969695951099975</v>
       </c>
       <c r="I8">
-        <v>0.00094789324433453</v>
+        <v>0.0009191396149104136</v>
       </c>
       <c r="J8">
-        <v>0.6929640096071239</v>
+        <v>0.6325977388680712</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1024023973601373</v>
+        <v>0.2378728765670033</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1398290551831316</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1016868862100182</v>
       </c>
       <c r="O8">
-        <v>0.6398233754871967</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8628198949815933</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6358563350451689</v>
+      </c>
+      <c r="R8">
+        <v>0.8333547011529987</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.145862371170267</v>
+        <v>2.880248666226862</v>
       </c>
       <c r="C9">
-        <v>0.7706784010197225</v>
+        <v>0.8742466291319033</v>
       </c>
       <c r="D9">
-        <v>0.07194780726493377</v>
+        <v>0.08651639032150626</v>
       </c>
       <c r="E9">
-        <v>0.08905246046831294</v>
+        <v>0.09310602731044071</v>
       </c>
       <c r="F9">
-        <v>1.607381039240124</v>
+        <v>1.421225962828544</v>
       </c>
       <c r="G9">
-        <v>1.307953500436241</v>
+        <v>1.114129188383885</v>
       </c>
       <c r="H9">
-        <v>0.0001255338486525481</v>
+        <v>0.0001013922251185129</v>
       </c>
       <c r="I9">
-        <v>0.001363261471031052</v>
+        <v>0.00158816530136896</v>
       </c>
       <c r="J9">
-        <v>0.7935092899218432</v>
+        <v>0.7116165278218176</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1256843595913253</v>
+        <v>0.2367756881899545</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.172071063698322</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1228409035060167</v>
       </c>
       <c r="O9">
-        <v>0.8514731475000019</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7837580195366138</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8448761258701367</v>
+      </c>
+      <c r="R9">
+        <v>0.7658910175724714</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.717562013621375</v>
+        <v>3.376619467733747</v>
       </c>
       <c r="C10">
-        <v>0.9132750963616445</v>
+        <v>1.035308595730442</v>
       </c>
       <c r="D10">
-        <v>0.08032988767055826</v>
+        <v>0.0981903495716665</v>
       </c>
       <c r="E10">
-        <v>0.09737289288742801</v>
+        <v>0.101652396996073</v>
       </c>
       <c r="F10">
-        <v>1.77892979145372</v>
+        <v>1.54520022114491</v>
       </c>
       <c r="G10">
-        <v>1.464364962646897</v>
+        <v>1.25962955402639</v>
       </c>
       <c r="H10">
-        <v>0.001671953440629537</v>
+        <v>0.001408586376363985</v>
       </c>
       <c r="I10">
-        <v>0.003910595970950226</v>
+        <v>0.003787240676647485</v>
       </c>
       <c r="J10">
-        <v>0.8591731329436243</v>
+        <v>0.7176648606409799</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1363627773243081</v>
+        <v>0.2304090995482468</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1941384431905959</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1319081970881584</v>
       </c>
       <c r="O10">
-        <v>0.9923069671499434</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7277609452176184</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9810002499602177</v>
+      </c>
+      <c r="R10">
+        <v>0.7222544777375042</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.843468568336334</v>
+        <v>3.476253155345546</v>
       </c>
       <c r="C11">
-        <v>0.939572837493813</v>
+        <v>1.045108035870953</v>
       </c>
       <c r="D11">
-        <v>0.06721480222566356</v>
+        <v>0.08457768721115855</v>
       </c>
       <c r="E11">
-        <v>0.07112396243137198</v>
+        <v>0.07418660696440682</v>
       </c>
       <c r="F11">
-        <v>1.636020866427359</v>
+        <v>1.391962420988051</v>
       </c>
       <c r="G11">
-        <v>1.360171223582768</v>
+        <v>1.218030481733933</v>
       </c>
       <c r="H11">
-        <v>0.02029327916130441</v>
+        <v>0.01995680626584573</v>
       </c>
       <c r="I11">
-        <v>0.005305267053229201</v>
+        <v>0.005055188552424816</v>
       </c>
       <c r="J11">
-        <v>0.8017043887362263</v>
+        <v>0.5865142281021463</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09632190470858504</v>
+        <v>0.2028514816232416</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1760157955042487</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09237834281472956</v>
       </c>
       <c r="O11">
-        <v>0.9225653256318793</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7038571978304304</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9064116227309</v>
+      </c>
+      <c r="R11">
+        <v>0.7279149834872634</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.836000079824373</v>
+        <v>3.470155030795127</v>
       </c>
       <c r="C12">
-        <v>0.9270843559844764</v>
+        <v>1.018849031351436</v>
       </c>
       <c r="D12">
-        <v>0.05560486999487324</v>
+        <v>0.07089822023921499</v>
       </c>
       <c r="E12">
-        <v>0.05447709814897195</v>
+        <v>0.05609629275605066</v>
       </c>
       <c r="F12">
-        <v>1.489314568326705</v>
+        <v>1.254772613508322</v>
       </c>
       <c r="G12">
-        <v>1.248102103919194</v>
+        <v>1.143530863083129</v>
       </c>
       <c r="H12">
-        <v>0.05875933627255137</v>
+        <v>0.0584351200197446</v>
       </c>
       <c r="I12">
-        <v>0.005430342913871122</v>
+        <v>0.005131437183726995</v>
       </c>
       <c r="J12">
-        <v>0.7435508575295842</v>
+        <v>0.5096618602532317</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.07622487512026055</v>
+        <v>0.1846349240539737</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1591076518032786</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07303490460962081</v>
       </c>
       <c r="O12">
-        <v>0.8368273755304543</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7050852739023021</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.8194332893278187</v>
+      </c>
+      <c r="R12">
+        <v>0.7499676588068525</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.716433440644437</v>
+        <v>3.379756450534444</v>
       </c>
       <c r="C13">
-        <v>0.8879047573768446</v>
+        <v>0.9700621210862721</v>
       </c>
       <c r="D13">
-        <v>0.04492870189956832</v>
+        <v>0.05684003904257651</v>
       </c>
       <c r="E13">
-        <v>0.04432417786851373</v>
+        <v>0.04446042566762243</v>
       </c>
       <c r="F13">
-        <v>1.325688390064883</v>
+        <v>1.120148124683553</v>
       </c>
       <c r="G13">
-        <v>1.11736558071884</v>
+        <v>1.025698481747298</v>
       </c>
       <c r="H13">
-        <v>0.1140936055427773</v>
+        <v>0.1138502357896272</v>
       </c>
       <c r="I13">
-        <v>0.004866244124887231</v>
+        <v>0.00468405122281812</v>
       </c>
       <c r="J13">
-        <v>0.6783535829114129</v>
+        <v>0.473508913455035</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.070030520944111</v>
+        <v>0.1710341277456742</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1417353308797296</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06782699424019167</v>
       </c>
       <c r="O13">
-        <v>0.7343767629873312</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7240155638689423</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7191152128032243</v>
+      </c>
+      <c r="R13">
+        <v>0.7814372599993362</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.580879845363313</v>
+        <v>3.276698242226701</v>
       </c>
       <c r="C14">
-        <v>0.8493679853198444</v>
+        <v>0.9264646758009007</v>
       </c>
       <c r="D14">
-        <v>0.03820478647718062</v>
+        <v>0.04745538012655004</v>
       </c>
       <c r="E14">
-        <v>0.04115361436322995</v>
+        <v>0.04041432404168843</v>
       </c>
       <c r="F14">
-        <v>1.204278078502128</v>
+        <v>1.026310405674579</v>
       </c>
       <c r="G14">
-        <v>1.017661119904034</v>
+        <v>0.9257306722815315</v>
       </c>
       <c r="H14">
-        <v>0.1631078420084862</v>
+        <v>0.1629375893730298</v>
       </c>
       <c r="I14">
-        <v>0.004284869986873829</v>
+        <v>0.004256252021190399</v>
       </c>
       <c r="J14">
-        <v>0.6295917116735268</v>
+        <v>0.4629057526268383</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.07401540726905509</v>
+        <v>0.1631223726743087</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1293091969225024</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07257266551753183</v>
       </c>
       <c r="O14">
-        <v>0.6562457317395811</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7461966007224774</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6437087479951344</v>
+      </c>
+      <c r="R14">
+        <v>0.8075393628342624</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.522212940469842</v>
+        <v>3.231387657501841</v>
       </c>
       <c r="C15">
-        <v>0.8353760736805782</v>
+        <v>0.9118519361581434</v>
       </c>
       <c r="D15">
-        <v>0.03661660562730162</v>
+        <v>0.04508913080160326</v>
       </c>
       <c r="E15">
-        <v>0.04079985688786869</v>
+        <v>0.03991711419033117</v>
       </c>
       <c r="F15">
-        <v>1.169637336208268</v>
+        <v>1.001745274905446</v>
       </c>
       <c r="G15">
-        <v>0.9879760033913954</v>
+        <v>0.8925196326158442</v>
       </c>
       <c r="H15">
-        <v>0.1754852161213449</v>
+        <v>0.1753436879617993</v>
       </c>
       <c r="I15">
-        <v>0.004122836925438023</v>
+        <v>0.004180121660202651</v>
       </c>
       <c r="J15">
-        <v>0.615518178303347</v>
+        <v>0.4659438777623421</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.07585265167039879</v>
+        <v>0.1616191554222084</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1258199809209373</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07464766712677573</v>
       </c>
       <c r="O15">
-        <v>0.6334785354087771</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7543948042601869</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6221301448850696</v>
+      </c>
+      <c r="R15">
+        <v>0.8148903693338028</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.299548602484776</v>
+        <v>3.05436734081627</v>
       </c>
       <c r="C16">
-        <v>0.7841399770191799</v>
+        <v>0.8646622204966548</v>
       </c>
       <c r="D16">
-        <v>0.03556634183504315</v>
+        <v>0.04263383243001329</v>
       </c>
       <c r="E16">
-        <v>0.03959519681637991</v>
+        <v>0.03915123652078012</v>
       </c>
       <c r="F16">
-        <v>1.130140647848563</v>
+        <v>0.9909893624326003</v>
       </c>
       <c r="G16">
-        <v>0.9472150796316612</v>
+        <v>0.823474797764618</v>
       </c>
       <c r="H16">
-        <v>0.16221427999551</v>
+        <v>0.1621705613188027</v>
       </c>
       <c r="I16">
-        <v>0.003145063810597648</v>
+        <v>0.003441914659843448</v>
       </c>
       <c r="J16">
-        <v>0.6002367615875812</v>
+        <v>0.5184460254197774</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.07272652748861219</v>
+        <v>0.1673252194365418</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1230246716554255</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07205360526963744</v>
       </c>
       <c r="O16">
-        <v>0.5968867574394068</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7715541166070921</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5900744074500395</v>
+      </c>
+      <c r="R16">
+        <v>0.8167257038586939</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.200507639338696</v>
+        <v>2.969768497633311</v>
       </c>
       <c r="C17">
-        <v>0.7653961988353331</v>
+        <v>0.8500936152867382</v>
       </c>
       <c r="D17">
-        <v>0.03816101654303239</v>
+        <v>0.04546941561433471</v>
       </c>
       <c r="E17">
-        <v>0.03966925451170511</v>
+        <v>0.03982915834319689</v>
       </c>
       <c r="F17">
-        <v>1.163269954873257</v>
+        <v>1.030119972858415</v>
       </c>
       <c r="G17">
-        <v>0.9681504233927427</v>
+        <v>0.8270583155081539</v>
       </c>
       <c r="H17">
-        <v>0.1242217820613831</v>
+        <v>0.1242064919530605</v>
       </c>
       <c r="I17">
-        <v>0.002758265242731817</v>
+        <v>0.003142515356915787</v>
       </c>
       <c r="J17">
-        <v>0.6141099619576664</v>
+        <v>0.5590914813082861</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.0667880183512306</v>
+        <v>0.1759660336116049</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.126885433432065</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06612245863203903</v>
       </c>
       <c r="O17">
-        <v>0.6094879714604744</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7727606045274342</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6043795363665438</v>
+      </c>
+      <c r="R17">
+        <v>0.8066886945294272</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.200361232990133</v>
+        <v>2.963822031945256</v>
       </c>
       <c r="C18">
-        <v>0.7702272749425276</v>
+        <v>0.86215446665679</v>
       </c>
       <c r="D18">
-        <v>0.04489381916503277</v>
+        <v>0.05361257777988016</v>
       </c>
       <c r="E18">
-        <v>0.04444183635931154</v>
+        <v>0.04543288717069505</v>
       </c>
       <c r="F18">
-        <v>1.267993307820177</v>
+        <v>1.125656590808916</v>
       </c>
       <c r="G18">
-        <v>1.049131833037137</v>
+        <v>0.8887743664929104</v>
       </c>
       <c r="H18">
-        <v>0.07136799382559644</v>
+        <v>0.07135520635243608</v>
       </c>
       <c r="I18">
-        <v>0.002441150152935556</v>
+        <v>0.002795941736711605</v>
       </c>
       <c r="J18">
-        <v>0.65683430784091</v>
+        <v>0.6078199753758042</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.06542354100244979</v>
+        <v>0.1897924470879637</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1383028413414316</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06431360602825031</v>
       </c>
       <c r="O18">
-        <v>0.6677211866707466</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7640633100108616</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6629526633274168</v>
+      </c>
+      <c r="R18">
+        <v>0.7864084823326181</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.268837125256823</v>
+        <v>3.013534831315212</v>
       </c>
       <c r="C19">
-        <v>0.7982557029740178</v>
+        <v>0.9005442287874814</v>
       </c>
       <c r="D19">
-        <v>0.05610192812507364</v>
+        <v>0.06717424510883063</v>
       </c>
       <c r="E19">
-        <v>0.05806562374585944</v>
+        <v>0.06012227352489319</v>
       </c>
       <c r="F19">
-        <v>1.421830458967179</v>
+        <v>1.260164542555486</v>
       </c>
       <c r="G19">
-        <v>1.169517831598924</v>
+        <v>0.9867599139438994</v>
       </c>
       <c r="H19">
-        <v>0.02627677214407242</v>
+        <v>0.0262462562658925</v>
       </c>
       <c r="I19">
-        <v>0.002692598091735832</v>
+        <v>0.003051390208197446</v>
       </c>
       <c r="J19">
-        <v>0.7179215756440414</v>
+        <v>0.6628413782429021</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.079186574086199</v>
+        <v>0.2063108582535342</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1544789831192972</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07724548882532467</v>
       </c>
       <c r="O19">
-        <v>0.7616764955010922</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7552085011769964</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.75640549501815</v>
+      </c>
+      <c r="R19">
+        <v>0.765275830301011</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.54867261751582</v>
+        <v>3.23736982524116</v>
       </c>
       <c r="C20">
-        <v>0.8830321115963784</v>
+        <v>1.004427090274191</v>
       </c>
       <c r="D20">
-        <v>0.0788383459286095</v>
+        <v>0.0951511915023957</v>
       </c>
       <c r="E20">
-        <v>0.09519311189035662</v>
+        <v>0.09919431483634966</v>
       </c>
       <c r="F20">
-        <v>1.720445592407032</v>
+        <v>1.508783559469009</v>
       </c>
       <c r="G20">
-        <v>1.409344570268843</v>
+        <v>1.194993552134463</v>
       </c>
       <c r="H20">
-        <v>0.001089305978500654</v>
+        <v>0.0009246162425169402</v>
       </c>
       <c r="I20">
-        <v>0.003778843642794349</v>
+        <v>0.003973751561860972</v>
       </c>
       <c r="J20">
-        <v>0.8348960179735911</v>
+        <v>0.7366760797331011</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1330242993125168</v>
+        <v>0.2307209181112349</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1866730337790656</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1290987682321543</v>
       </c>
       <c r="O20">
-        <v>0.9542198261722064</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7412827239631397</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.9457879105237836</v>
+      </c>
+      <c r="R20">
+        <v>0.7337960557755494</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.013549429488364</v>
+        <v>3.596338279685881</v>
       </c>
       <c r="C21">
-        <v>0.9997632479102663</v>
+        <v>1.116155371685295</v>
       </c>
       <c r="D21">
-        <v>0.08852084094828427</v>
+        <v>0.1120989462136777</v>
       </c>
       <c r="E21">
-        <v>0.1079623819426452</v>
+        <v>0.1136773030649536</v>
       </c>
       <c r="F21">
-        <v>1.895763507912562</v>
+        <v>1.599117803505649</v>
       </c>
       <c r="G21">
-        <v>1.564668308448944</v>
+        <v>1.413816287863284</v>
       </c>
       <c r="H21">
-        <v>0.002924686043814351</v>
+        <v>0.002362203173513766</v>
       </c>
       <c r="I21">
-        <v>0.006463859426522944</v>
+        <v>0.006015885359785145</v>
       </c>
       <c r="J21">
-        <v>0.9029755871802365</v>
+        <v>0.6230778398973342</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1514178978484964</v>
+        <v>0.2239537534409273</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2021858028228323</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1456065459475795</v>
       </c>
       <c r="O21">
-        <v>1.087015946126968</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7009151203064525</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.066087162119281</v>
+      </c>
+      <c r="R21">
+        <v>0.7027221978050697</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.318334564101463</v>
+        <v>3.827823931337036</v>
       </c>
       <c r="C22">
-        <v>1.071207422195414</v>
+        <v>1.181493416898718</v>
       </c>
       <c r="D22">
-        <v>0.09347956582677597</v>
+        <v>0.1220959213977011</v>
       </c>
       <c r="E22">
-        <v>0.1141963771275947</v>
+        <v>0.1210930413269331</v>
       </c>
       <c r="F22">
-        <v>2.003892622472733</v>
+        <v>1.648498315470391</v>
       </c>
       <c r="G22">
-        <v>1.662751249797537</v>
+        <v>1.56470546372833</v>
       </c>
       <c r="H22">
-        <v>0.004639229895988306</v>
+        <v>0.003707400415508433</v>
       </c>
       <c r="I22">
-        <v>0.008439491249268904</v>
+        <v>0.007325318099580258</v>
       </c>
       <c r="J22">
-        <v>0.9458290856548217</v>
+        <v>0.5466248943108099</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1602975982625807</v>
+        <v>0.2188817999834711</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2119163769855774</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1532919360257949</v>
       </c>
       <c r="O22">
-        <v>1.166389169226903</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6751462465337936</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.136370008510511</v>
+      </c>
+      <c r="R22">
+        <v>0.6845146205665387</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.162530127597449</v>
+        <v>3.716380051611623</v>
       </c>
       <c r="C23">
-        <v>1.030082312842865</v>
+        <v>1.146633046959153</v>
       </c>
       <c r="D23">
-        <v>0.09051088671390062</v>
+        <v>0.1157976397154741</v>
       </c>
       <c r="E23">
-        <v>0.1107872972850252</v>
+        <v>0.1168619918842033</v>
       </c>
       <c r="F23">
-        <v>1.95062530364109</v>
+        <v>1.631911254099023</v>
       </c>
       <c r="G23">
-        <v>1.615138161706113</v>
+        <v>1.476823510788535</v>
       </c>
       <c r="H23">
-        <v>0.003687294815872821</v>
+        <v>0.002971533405430771</v>
       </c>
       <c r="I23">
-        <v>0.007076539385677094</v>
+        <v>0.006282910973204103</v>
       </c>
       <c r="J23">
-        <v>0.925331749832452</v>
+        <v>0.6049169718841227</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1556457068158323</v>
+        <v>0.2233039843612339</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2087559154779939</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1493120219351951</v>
       </c>
       <c r="O23">
-        <v>1.124146158189021</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6891548789125854</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.100186494805783</v>
+      </c>
+      <c r="R23">
+        <v>0.693040224470888</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.562841611559122</v>
+        <v>3.249204882937818</v>
       </c>
       <c r="C24">
-        <v>0.8805945984823893</v>
+        <v>1.002976898618016</v>
       </c>
       <c r="D24">
-        <v>0.07990220064226605</v>
+        <v>0.09643612930558731</v>
       </c>
       <c r="E24">
-        <v>0.09812137294314738</v>
+        <v>0.1022523515443901</v>
       </c>
       <c r="F24">
-        <v>1.744587164801317</v>
+        <v>1.530283038184805</v>
       </c>
       <c r="G24">
-        <v>1.429939518981399</v>
+        <v>1.211696826190064</v>
       </c>
       <c r="H24">
-        <v>0.001032029726306671</v>
+        <v>0.0008604459385888052</v>
       </c>
       <c r="I24">
-        <v>0.003348237172062341</v>
+        <v>0.003437526073243546</v>
       </c>
       <c r="J24">
-        <v>0.845339599890309</v>
+        <v>0.7469480690298838</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1380231034566464</v>
+        <v>0.2342294329652752</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1900906108834306</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1339795887066515</v>
       </c>
       <c r="O24">
-        <v>0.9646483889302502</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7430906198413698</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.9562005131090956</v>
+      </c>
+      <c r="R24">
+        <v>0.7327218627710472</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.918813012281021</v>
+        <v>2.680899291074354</v>
       </c>
       <c r="C25">
-        <v>0.7218702527006826</v>
+        <v>0.8175072811330892</v>
       </c>
       <c r="D25">
-        <v>0.06865547610632916</v>
+        <v>0.08205980868175544</v>
       </c>
       <c r="E25">
-        <v>0.0846453366812483</v>
+        <v>0.0885864285510074</v>
       </c>
       <c r="F25">
-        <v>1.528279547198494</v>
+        <v>1.359819564773744</v>
       </c>
       <c r="G25">
-        <v>1.235891186740872</v>
+        <v>1.051153397272117</v>
       </c>
       <c r="H25">
-        <v>2.195361181733801E-08</v>
+        <v>3.897322020662841E-09</v>
       </c>
       <c r="I25">
-        <v>0.001288904519083367</v>
+        <v>0.001619922065779988</v>
       </c>
       <c r="J25">
-        <v>0.7621448838746687</v>
+        <v>0.6977232434589098</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1192330888626429</v>
+        <v>0.2361666749515159</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1617119919321262</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1170232347183315</v>
       </c>
       <c r="O25">
-        <v>0.793843072396065</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8039637827427262</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.788647981283944</v>
+      </c>
+      <c r="R25">
+        <v>0.7837318420599111</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
